--- a/biology/Botanique/Coussarea/Coussarea.xlsx
+++ b/biology/Botanique/Coussarea/Coussarea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coussarea est un genre néotropical d'arbre, appartenant à la famille des Rubiaceae, comportant environ 146 espèces, et dont l'espèce type est Coussarea violacea Aubl..
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Coussarea regroupe des arbres ou des arbustes, non armés, terrestres, parfois résineux, à feuilles opposées ou rarement ternées, sessiles à pétiolées, à nervation non linéolée, souvent avec des domaties pilosules et/ou fovéolées à l'aisselle des nervures secondaires. 
 Les stipules sont généralement caduques, généralement triangulaires à larges, interpétiolaires à réunies autour de la tige, et généralement imbriquées dans le bourgeon ou parfois calyptrées (c.-à-d. fusionnées en un chapeau conique).
@@ -525,7 +539,7 @@
 L'ovaire est incomplètement bi-loculaire.
 Les ovules sont solitaires dans l'ovaire ou 2 et fusionnés, basaux.
 Le fruit est une baie ellipsoïde à subglobuleuse, coriace à spongieuse ou charnue, blanche à jaune ou rarement orange, lisse, avec l'endocarpe papilleux à chartacé ou rarement ligneux.
-Les graines sont solitaires, ellipsoïdes à subglobuleuses, lisses[2].
+Les graines sont solitaires, ellipsoïdes à subglobuleuses, lisses.
 </t>
         </is>
       </c>
@@ -554,9 +568,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre le genre Coussarea du Mexique à l'Argentine en passant par l'Amérique centrale, la Colombie, le Venezuela, Trinidad, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, le Brésil, le Bolivie, et le Paraguay[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre le genre Coussarea du Mexique à l'Argentine en passant par l'Amérique centrale, la Colombie, le Venezuela, Trinidad, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, le Brésil, le Bolivie, et le Paraguay.
 </t>
         </is>
       </c>
@@ -585,9 +601,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[3] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « COUSSAREA. (Tabula 38.)
 CAL. Perianthium monophyllum, turbinatum, quinquedentatum.
 COR. monopetala, alba ; tubus brevis, diſco ſuprà germen infertus, limbus quadrifidus; lobis oblongis, acutis.
@@ -623,9 +641,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (23 avril 2024)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (23 avril 2024) :
 Coussarea accedens Müll.Arg.
 Coussarea acrensis C.M.Taylor
 Coussarea acuminata (Ruiz &amp; Pav.) Zappi
